--- a/parts.xlsx
+++ b/parts.xlsx
@@ -8,12 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA\installation-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12591B5E-FDC4-47CE-B258-77DC9DCC4FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B20E62-9264-4795-AF45-4138BC495F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CPU" sheetId="1" r:id="rId1"/>
+    <sheet name="主板" sheetId="2" r:id="rId2"/>
+    <sheet name="内存" sheetId="3" r:id="rId3"/>
+    <sheet name="显卡" sheetId="10" r:id="rId4"/>
+    <sheet name="散热器" sheetId="4" r:id="rId5"/>
+    <sheet name="固态" sheetId="5" r:id="rId6"/>
+    <sheet name="机械" sheetId="6" r:id="rId7"/>
+    <sheet name="电源" sheetId="7" r:id="rId8"/>
+    <sheet name="机箱" sheetId="8" r:id="rId9"/>
+    <sheet name="风扇" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,13 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
     <t>R5 3600 + B450M MORTAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,9 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内存</t>
-  </si>
-  <si>
     <t>https://item.jd.com/100005116786.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,9 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>散热器</t>
-  </si>
-  <si>
     <t>乔思伯 CR-1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,9 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>固态</t>
-  </si>
-  <si>
     <t>西数蓝盘1T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,21 +95,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机箱</t>
-  </si>
-  <si>
-    <t>机械</t>
-  </si>
-  <si>
     <t>https://item.jd.com/984222.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鑫谷 GP600G 500W</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源</t>
   </si>
   <si>
     <t>https://item.jd.com/225549.html</t>
@@ -472,178 +456,436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="85.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1319</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1699</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9828D0EE-C5C7-4AD7-97F7-D5F3E114D768}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{12D49F00-DD56-45B0-ADFA-B72425E97439}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE32E049-F066-4DFA-A0F2-D30A2BFA6FF6}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="85.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F254E58-ED6D-47D0-A6B4-603B869A3CFD}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="85.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ED972C-0D64-4FE1-896F-CA9826D8EDFF}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="85.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>559</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{18AF9BAC-5641-4C40-8E71-CF30C6653B14}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104228D3-EE08-415A-AF76-240B4119028C}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="85.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="85.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EF5496-AC5E-40EE-888E-D9F87C7A9C61}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="85.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1319</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A5F30276-3130-4FED-A25F-C933680783DC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A233632-6C55-47D0-92A0-64BE5BDEE6A9}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="85.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>399</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6CB65951-4EFF-4154-923D-6E74F9E647CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DF4673-DE18-464A-BF5F-6A3D8D320C04}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="85.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>309</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3022B22A-0CC3-43DF-AD18-ABE2345DB86E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A51CE9-920F-419D-9E1E-2F07CD214CD8}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="85.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2">
+        <v>289</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1699</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>559</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2">
+        <v>439</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2">
-        <v>399</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2">
-        <v>309</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{FE7E6168-8CA2-4FA5-A78A-631473A499F6}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A03789BA-B0B4-4209-B3BB-78C6A50F6929}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA792223-E7A8-4C7D-9B6E-9433C14C8BEE}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="85.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2">
-        <v>289</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2">
-        <v>439</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B2" s="2">
+        <v>199</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2">
-        <v>199</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{D16BD838-A1CC-419B-B00B-9A0D8A23DE9E}">
-      <formula1>"CPU,主板,内存,显卡,散热器,固态,机械,电源,机箱,风扇"</formula1>
-    </dataValidation>
-  </dataValidations>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{9828D0EE-C5C7-4AD7-97F7-D5F3E114D768}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{12D49F00-DD56-45B0-ADFA-B72425E97439}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{18AF9BAC-5641-4C40-8E71-CF30C6653B14}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{A5F30276-3130-4FED-A25F-C933680783DC}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{6CB65951-4EFF-4154-923D-6E74F9E647CE}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{3022B22A-0CC3-43DF-AD18-ABE2345DB86E}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{FE7E6168-8CA2-4FA5-A78A-631473A499F6}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{A03789BA-B0B4-4209-B3BB-78C6A50F6929}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{0626E742-17A6-470F-86D6-1296EFA339FF}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0626E742-17A6-470F-86D6-1296EFA339FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>